--- a/ConfigurationFile.xlsx
+++ b/ConfigurationFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI_Jigesh\POMGeneratorAI\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0108C49-86A6-4860-9276-D0A806B93841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CF426-033B-494E-9387-E8C98560C646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50F12C73-1779-483F-AA62-D2B64F158887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
   <si>
     <t>S No</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Initial_Screening</t>
+  </si>
+  <si>
+    <t>LoginScreen.xlsx</t>
+  </si>
+  <si>
+    <t>LoginScreen</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -843,8 +852,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F4B883B-D658-4ACA-B2F3-5527544B602C}" name="Table22" displayName="Table22" ref="A1:J11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J11" xr:uid="{9F4B883B-D658-4ACA-B2F3-5527544B602C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F4B883B-D658-4ACA-B2F3-5527544B602C}" name="Table22" displayName="Table22" ref="A1:J12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J12" xr:uid="{9F4B883B-D658-4ACA-B2F3-5527544B602C}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D4CA890D-67A1-400F-A137-D308F0954532}" name="S No" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{621675CC-3E57-4674-9313-D7873FDB03E2}" name="Flag" dataDxfId="8"/>
@@ -1531,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3B4E75-177E-4023-ABF7-FBEEB46AA752}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1873,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>46</v>
@@ -1898,6 +1907,38 @@
       </c>
       <c r="J11" s="7" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigurationFile.xlsx
+++ b/ConfigurationFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI_Jigesh\POMGeneratorAI\src\main\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI 1_Jigesh_08132024 (1)\POMGeneratorAI\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CF426-033B-494E-9387-E8C98560C646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77955C59-7462-4658-ADFE-FC97AE11DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50F12C73-1779-483F-AA62-D2B64F158887}"/>
   </bookViews>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1882,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>46</v>
@@ -1914,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>48</v>
